--- a/biology/Botanique/François_Houtin/François_Houtin.xlsx
+++ b/biology/Botanique/François_Houtin/François_Houtin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Houtin</t>
+          <t>François_Houtin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Houtin, né le 25 août 1950 à Craon en Mayenne, est un artiste français, jardinier paysagiste, peintre et graveur.
 Il est connu pour ses jardins imaginaires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Houtin</t>
+          <t>François_Houtin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,21 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été jardinier-paysagiste chez Jacques Bédat et Franz Baechler au début des années 1970, François Houtin s'initie à la gravure à Paris auprès de Jean Delpech[1]. Il montre ses premiers travaux lors d'expositions à partir de 1977. Dès cette période, ceux-ci ont pour sujet une nature rêvée — jardins fantastiques, topiaires, architectures végétales — où la parfaite connaissance des plantes est mise au service de l'imaginaire[2].
-À côté de la gravure qui a été longtemps son mode d'expression privilégié, François Houtin réalise également des séries de dessins sur carnets chinois (leporellos) et, depuis 2002, de très grands lavis à l'encre de chine sur papier ou sur toile. Ses sources d'inspiration s'orientent de plus en  plus vers la représentation d'arbres anciens et remarquables qu'il saisit dans toute la complexité de leurs feuillages, de leurs écorces blessées par le temps et de leur mystère. Il peint également sur papier chinois marouflé d'importantes fresques murales, dont par exemple en 2010 le décor végétal monochrome du restaurant Artcurial au rond-point des Champs Elysées à Paris[3],[4] et de nombreux autres décors peints in situ  répondant à diverses commandes privées (Paris, New York, Chicago, Montréal, Milan, Beyrouth, Séoul). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été jardinier-paysagiste chez Jacques Bédat et Franz Baechler au début des années 1970, François Houtin s'initie à la gravure à Paris auprès de Jean Delpech. Il montre ses premiers travaux lors d'expositions à partir de 1977. Dès cette période, ceux-ci ont pour sujet une nature rêvée — jardins fantastiques, topiaires, architectures végétales — où la parfaite connaissance des plantes est mise au service de l'imaginaire.
+À côté de la gravure qui a été longtemps son mode d'expression privilégié, François Houtin réalise également des séries de dessins sur carnets chinois (leporellos) et, depuis 2002, de très grands lavis à l'encre de chine sur papier ou sur toile. Ses sources d'inspiration s'orientent de plus en  plus vers la représentation d'arbres anciens et remarquables qu'il saisit dans toute la complexité de leurs feuillages, de leurs écorces blessées par le temps et de leur mystère. Il peint également sur papier chinois marouflé d'importantes fresques murales, dont par exemple en 2010 le décor végétal monochrome du restaurant Artcurial au rond-point des Champs Elysées à Paris, et de nombreux autres décors peints in situ  répondant à diverses commandes privées (Paris, New York, Chicago, Montréal, Milan, Beyrouth, Séoul). 
 François Houtin a également travaillé pour la Maison Hermès réalisant le décor de plusieurs carrés dont un châle en cachemire (2019) et un service de table en faïence, Les Maisons enchantées (2010). 
-L'architecte paysagiste
-François Houtin intervient à l'occasion comme architecte paysagiste et, à ce titre, a participé au projet de rénovation des jardins des Tuileries en 1990. 
-Il réalise plusieurs jardins dont le jardin topiaire de Colette et Hubert Sainte-Beuve à Plant-Bessin (Castillon) en Normandie.
-Certaines de ses réalisations, enfin, relèvent du land art, qu'il s'agisse de constructions de grands cairns dans la nature ou de commandes publiques ou privées.
-Prix et distinctions
-1981 : prix Lacourière
-1986 : prix Florence Gould
-2010 : grand prix de gravure de la fondation Taylor (grand prix Léon-Georges Baudry)[5]
-2013 : prix de gravure Nahed Ojjed de l'Académie des Beaux-Arts.
-François Houtin fait partie de la Société des peintres-graveurs français (depuis 1991) et du Comité national de l'estampe.
 </t>
         </is>
       </c>
@@ -537,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Houtin</t>
+          <t>François_Houtin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,14 +556,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'architecte paysagiste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Houtin intervient à l'occasion comme architecte paysagiste et, à ce titre, a participé au projet de rénovation des jardins des Tuileries en 1990. 
+Il réalise plusieurs jardins dont le jardin topiaire de Colette et Hubert Sainte-Beuve à Plant-Bessin (Castillon) en Normandie.
+Certaines de ses réalisations, enfin, relèvent du land art, qu'il s'agisse de constructions de grands cairns dans la nature ou de commandes publiques ou privées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Houtin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Houtin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1981 : prix Lacourière
+1986 : prix Florence Gould
+2010 : grand prix de gravure de la fondation Taylor (grand prix Léon-Georges Baudry)
+2013 : prix de gravure Nahed Ojjed de l'Académie des Beaux-Arts.
+François Houtin fait partie de la Société des peintres-graveurs français (depuis 1991) et du Comité national de l'estampe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Houtin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Houtin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Expositions et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>François Houtin est représenté dans plusieurs galeries françaises et étrangères, en particulier à Paris, à Londres, à Venise, à Sarrebruck et à Chicago.
-Éditions de bibliophilie
-1978 : Jardins, suite de 40 eaux-fortes, préface de Ramon Alejandro
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Houtin est représenté dans plusieurs galeries françaises et étrangères, en particulier à Paris, à Londres, à Venise, à Sarrebruck et à Chicago.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Houtin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Houtin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Expositions et publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éditions de bibliophilie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1978 : Jardins, suite de 40 eaux-fortes, préface de Ramon Alejandro
 1980 :
 Topiaire, suite de 12 eaux-fortes, préface de François Deck.
 La Fille de Rappaccini, nouvelle de Nathaniel Hawthorne illustrée de 14 eaux-fortes
